--- a/rapport/documents/tableau_de_bord.xlsx
+++ b/rapport/documents/tableau_de_bord.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="70">
   <si>
     <t>Emma</t>
   </si>
@@ -145,6 +145,87 @@
   </si>
   <si>
     <t>HttpRequest/ Router</t>
+  </si>
+  <si>
+    <t>Modèles</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>Promoter</t>
+  </si>
+  <si>
+    <t>Intégration HTML/CSS</t>
+  </si>
+  <si>
+    <t>Defautl</t>
+  </si>
+  <si>
+    <t>Déconnexion</t>
+  </si>
+  <si>
+    <t>Ajouter un événement</t>
+  </si>
+  <si>
+    <t>Supprimer un événement</t>
+  </si>
+  <si>
+    <t>Modifier un événement</t>
+  </si>
+  <si>
+    <t>Afficher un événement</t>
+  </si>
+  <si>
+    <t>Lister les événements</t>
+  </si>
+  <si>
+    <t>Rechercher</t>
+  </si>
+  <si>
+    <t>Changer le status</t>
+  </si>
+  <si>
+    <t>Ajouter une épreuve</t>
+  </si>
+  <si>
+    <t>Modifier une épreuve</t>
+  </si>
+  <si>
+    <t>Supprimer une épreuve</t>
+  </si>
+  <si>
+    <t>Afficher une épreuve</t>
+  </si>
+  <si>
+    <t>Valider le paiement</t>
+  </si>
+  <si>
+    <t>Afficher les participants</t>
+  </si>
+  <si>
+    <t>Afficher le récapitulatif des inscriptions</t>
+  </si>
+  <si>
+    <t>Exporter un fichier CSV</t>
+  </si>
+  <si>
+    <t>Publier une épreuve</t>
+  </si>
+  <si>
+    <t>Importer un fichier CSV</t>
+  </si>
+  <si>
+    <t>Rechercher des participants</t>
   </si>
 </sst>
 </file>
@@ -227,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,6 +346,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G33"/>
+  <dimension ref="B2:AD47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="R17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,9 +663,11 @@
     <col min="2" max="2" width="22.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="11.42578125" style="8"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
@@ -595,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -611,7 +699,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
@@ -624,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -638,7 +726,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
@@ -649,7 +737,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
@@ -660,7 +748,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
@@ -670,8 +758,20 @@
       <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="M8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
@@ -681,8 +781,20 @@
       <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
@@ -692,8 +804,17 @@
       <c r="E10" s="1"/>
       <c r="F10" s="7"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
@@ -703,8 +824,17 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="L11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
@@ -714,8 +844,17 @@
         <v>6</v>
       </c>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="L12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
         <v>19</v>
       </c>
@@ -726,7 +865,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
@@ -746,7 +885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
@@ -757,7 +896,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
@@ -939,43 +1078,461 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="7"/>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="W35" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA35" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD35" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P36" s="14"/>
+      <c r="R36" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T36" s="14"/>
+      <c r="U36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="Y36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z36" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC36" s="14"/>
+      <c r="AD36" s="14"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="L37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P37" s="14"/>
+      <c r="S37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="T37" s="14"/>
+      <c r="U37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="Z37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="L38" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P38" s="14"/>
+      <c r="S38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T38" s="14"/>
+      <c r="U38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="Z38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="L39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="14"/>
+      <c r="S39" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="T39" s="14"/>
+      <c r="U39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="Z39" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="L40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" s="14"/>
+      <c r="S40" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="T40" s="14"/>
+      <c r="U40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W40" s="14"/>
+      <c r="Z40" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD40" s="14"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="L41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P41" s="14"/>
+      <c r="S41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T41" s="14"/>
+      <c r="U41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W41" s="14"/>
+      <c r="Z41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD41" s="14"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="L42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="14"/>
+      <c r="S42" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W42" s="14"/>
+      <c r="Z42" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD42" s="14"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S43" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T43" s="14"/>
+      <c r="U43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="Z43" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S44" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W44" s="14"/>
+      <c r="Z44" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD44" s="14"/>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S45" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T45" s="14"/>
+      <c r="U45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="Z45" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S46" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W46" s="14"/>
+      <c r="Z46" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AC46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD46" s="14"/>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="S47" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="T47" s="14"/>
+      <c r="U47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="Z47" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
